--- a/data/trans_orig/Q23_tabaco_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q23_tabaco_R2-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>51587</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40144</v>
+        <v>39683</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65338</v>
+        <v>64693</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2347794882072658</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1827030657318275</v>
+        <v>0.1806019093942846</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2973607603857051</v>
+        <v>0.2944269751801735</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -765,19 +765,19 @@
         <v>17765</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11033</v>
+        <v>10677</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26532</v>
+        <v>26624</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.158646398365117</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09852660819926068</v>
+        <v>0.09535314969196862</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2369404987098465</v>
+        <v>0.2377666904752513</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -786,19 +786,19 @@
         <v>69352</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>55929</v>
+        <v>54966</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85583</v>
+        <v>84691</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2090784139299973</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1686137491837589</v>
+        <v>0.1657092685864233</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.258011610093375</v>
+        <v>0.255324721906298</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>168138</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>154387</v>
+        <v>155032</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>179581</v>
+        <v>180042</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7652205117927342</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7026392396142948</v>
+        <v>0.7055730248198265</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.817296934268172</v>
+        <v>0.8193980906057154</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>91</v>
@@ -836,19 +836,19 @@
         <v>94211</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>85444</v>
+        <v>85352</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>100943</v>
+        <v>101299</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.841353601634883</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7630595012901535</v>
+        <v>0.7622333095247493</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9014733918007397</v>
+        <v>0.9046468503080315</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>255</v>
@@ -857,19 +857,19 @@
         <v>262349</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>246118</v>
+        <v>247010</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>275772</v>
+        <v>276735</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7909215860700027</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.741988389906625</v>
+        <v>0.7446752780937019</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8313862508162411</v>
+        <v>0.8342907314135768</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>52768</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40212</v>
+        <v>41431</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64613</v>
+        <v>65892</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2881994703594514</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2196238931722463</v>
+        <v>0.2262820683455905</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3528920127338082</v>
+        <v>0.3598766837419396</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -982,19 +982,19 @@
         <v>39818</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29583</v>
+        <v>29306</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51758</v>
+        <v>51196</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2510938595558822</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1865544846099488</v>
+        <v>0.1848080082948811</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3263927520531408</v>
+        <v>0.3228443635660488</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -1003,19 +1003,19 @@
         <v>92585</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75450</v>
+        <v>77163</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>108107</v>
+        <v>109810</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2709779967688353</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2208264612335757</v>
+        <v>0.2258391579136791</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3164077256072807</v>
+        <v>0.3213924177362948</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>130327</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>118482</v>
+        <v>117203</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>142883</v>
+        <v>141664</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7118005296405486</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.647107987266192</v>
+        <v>0.6401233162580604</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7803761068277545</v>
+        <v>0.7737179316544095</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>116</v>
@@ -1053,19 +1053,19 @@
         <v>118759</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>106819</v>
+        <v>107381</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>128994</v>
+        <v>129271</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7489061404441177</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6736072479468592</v>
+        <v>0.6771556364339512</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8134455153900512</v>
+        <v>0.8151919917051189</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>242</v>
@@ -1074,19 +1074,19 @@
         <v>249086</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>233564</v>
+        <v>231861</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>266221</v>
+        <v>264508</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7290220032311647</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6835922743927193</v>
+        <v>0.6786075822637049</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7791735387664243</v>
+        <v>0.7741608420863207</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>104193</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>88472</v>
+        <v>88504</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>120784</v>
+        <v>120318</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3408002440777941</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2893793853446056</v>
+        <v>0.289483199510509</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3950683510744746</v>
+        <v>0.3935437214812369</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1199,19 +1199,19 @@
         <v>11818</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6707</v>
+        <v>6083</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18363</v>
+        <v>18705</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1937243675225361</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1099490237244556</v>
+        <v>0.09972005949495132</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3010156274796417</v>
+        <v>0.3066170009641329</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>115</v>
@@ -1220,19 +1220,19 @@
         <v>116011</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>98111</v>
+        <v>98854</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>133709</v>
+        <v>134077</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3163346504681576</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2675259873569842</v>
+        <v>0.2695518625152211</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3645919645162229</v>
+        <v>0.3655955337487389</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>201537</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>184946</v>
+        <v>185412</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>217258</v>
+        <v>217226</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6591997559222059</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6049316489255255</v>
+        <v>0.6064562785187632</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7106206146553944</v>
+        <v>0.710516800489491</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>49</v>
@@ -1270,19 +1270,19 @@
         <v>49187</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>42642</v>
+        <v>42300</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>54298</v>
+        <v>54922</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8062756324774639</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6989843725203576</v>
+        <v>0.6933829990358671</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8900509762755443</v>
+        <v>0.9002799405050486</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>249</v>
@@ -1291,19 +1291,19 @@
         <v>250724</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>233026</v>
+        <v>232658</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>268624</v>
+        <v>267881</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6836653495318423</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6354080354837772</v>
+        <v>0.6344044662512609</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7324740126430159</v>
+        <v>0.7304481374847789</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>268720</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>245013</v>
+        <v>241352</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>295008</v>
+        <v>295531</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.378598380240081</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3451982496384352</v>
+        <v>0.3400408305322549</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.415635992280401</v>
+        <v>0.4163720898401981</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -1416,19 +1416,19 @@
         <v>73422</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59716</v>
+        <v>60000</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>89209</v>
+        <v>88742</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2742886311294465</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.223085934145528</v>
+        <v>0.2241458070138517</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3332623530000914</v>
+        <v>0.3315205219519115</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>342</v>
@@ -1437,19 +1437,19 @@
         <v>342142</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>311331</v>
+        <v>313475</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>371563</v>
+        <v>371111</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3500325288430739</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3185105296430553</v>
+        <v>0.3207045683454426</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.380131807423937</v>
+        <v>0.3796691795953646</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>441055</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>414767</v>
+        <v>414244</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>464762</v>
+        <v>468423</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.621401619759919</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.584364007719599</v>
+        <v>0.583627910159802</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6548017503615647</v>
+        <v>0.6599591694677451</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>187</v>
@@ -1487,19 +1487,19 @@
         <v>194261</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>178474</v>
+        <v>178941</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>207967</v>
+        <v>207683</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7257113688705535</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6667376469999087</v>
+        <v>0.6684794780480885</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7769140658544719</v>
+        <v>0.7758541929861481</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>619</v>
@@ -1508,19 +1508,19 @@
         <v>635316</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>605895</v>
+        <v>606347</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>666127</v>
+        <v>663983</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6499674711569261</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.619868192576063</v>
+        <v>0.6203308204046355</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6814894703569447</v>
+        <v>0.6792954316545575</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>95462</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79898</v>
+        <v>79505</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>109320</v>
+        <v>109374</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.440110361504477</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3683542172219996</v>
+        <v>0.3665438890948461</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5039991307491172</v>
+        <v>0.5042491777149186</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>61</v>
@@ -1633,19 +1633,19 @@
         <v>61736</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49763</v>
+        <v>50061</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>76433</v>
+        <v>75347</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.314799194143759</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2537488925835311</v>
+        <v>0.2552697646342861</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3897436124577458</v>
+        <v>0.3842054400974077</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>152</v>
@@ -1654,19 +1654,19 @@
         <v>157198</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>137136</v>
+        <v>137126</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>178725</v>
+        <v>176845</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3806090515376513</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3320346499505217</v>
+        <v>0.3320101855658381</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4327301548368787</v>
+        <v>0.4281767132147284</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>121443</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>107585</v>
+        <v>107531</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>137007</v>
+        <v>137400</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.559889638495523</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4960008692508828</v>
+        <v>0.4957508222850814</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6316457827780004</v>
+        <v>0.633456110905154</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>127</v>
@@ -1704,19 +1704,19 @@
         <v>134376</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>119679</v>
+        <v>120765</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>146349</v>
+        <v>146051</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.685200805856241</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6102563875422538</v>
+        <v>0.6157945599025922</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7462511074164687</v>
+        <v>0.7447302353657148</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>244</v>
@@ -1725,19 +1725,19 @@
         <v>255820</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>234293</v>
+        <v>236173</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>275882</v>
+        <v>275892</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6193909484623487</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5672698451631215</v>
+        <v>0.5718232867852714</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6679653500494783</v>
+        <v>0.6679898144341617</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>34616</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26424</v>
+        <v>26390</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>44540</v>
+        <v>44010</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4609326133137897</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3518473080957063</v>
+        <v>0.3513949107338111</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5930802812409522</v>
+        <v>0.5860146335124309</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>59</v>
@@ -1850,19 +1850,19 @@
         <v>56386</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43975</v>
+        <v>45145</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69313</v>
+        <v>69888</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2814319472199613</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2194841142956349</v>
+        <v>0.2253270569372931</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3459515575105891</v>
+        <v>0.3488186809348758</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>95</v>
@@ -1871,19 +1871,19 @@
         <v>91002</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>75653</v>
+        <v>76201</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>105563</v>
+        <v>106595</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3303708982469828</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2746491853108002</v>
+        <v>0.2766393603326637</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3832332681545008</v>
+        <v>0.3869804332835008</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>40484</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30560</v>
+        <v>31090</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>48676</v>
+        <v>48710</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5390673866862103</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4069197187590481</v>
+        <v>0.413985366487569</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6481526919042937</v>
+        <v>0.6486050892661889</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>141</v>
@@ -1921,19 +1921,19 @@
         <v>143969</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>131042</v>
+        <v>130467</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>156380</v>
+        <v>155210</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7185680527800387</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.654048442489411</v>
+        <v>0.6511813190651242</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7805158857043651</v>
+        <v>0.7746729430627068</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>181</v>
@@ -1942,19 +1942,19 @@
         <v>184452</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>169891</v>
+        <v>168859</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>199801</v>
+        <v>199253</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6696291017530172</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6167667318454992</v>
+        <v>0.6130195667164993</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7253508146891997</v>
+        <v>0.7233606396673361</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>607345</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>572186</v>
+        <v>567417</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>647496</v>
+        <v>646241</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3551042779008824</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3345469638571553</v>
+        <v>0.33175878982169</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3785795280064431</v>
+        <v>0.3778458015451739</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>260</v>
@@ -2067,19 +2067,19 @@
         <v>260945</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>233843</v>
+        <v>235153</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>289278</v>
+        <v>289112</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2620698758349299</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.234851349061347</v>
+        <v>0.2361667001877197</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2905251527248186</v>
+        <v>0.290357771554266</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>859</v>
@@ -2088,19 +2088,19 @@
         <v>868290</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>821357</v>
+        <v>816719</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>920215</v>
+        <v>914713</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3208715403047702</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3035274930717679</v>
+        <v>0.3018138287408645</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3400599711810623</v>
+        <v>0.3380269194161983</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1102985</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1062834</v>
+        <v>1064089</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1138144</v>
+        <v>1142913</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6448957220991175</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6214204719935569</v>
+        <v>0.6221541984548261</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6654530361428447</v>
+        <v>0.6682412101783101</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>711</v>
@@ -2138,19 +2138,19 @@
         <v>734763</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>706430</v>
+        <v>706596</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>761865</v>
+        <v>760555</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7379301241650701</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7094748472751815</v>
+        <v>0.709642228445734</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7651486509386531</v>
+        <v>0.7638332998122803</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1790</v>
@@ -2159,19 +2159,19 @@
         <v>1837747</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1785822</v>
+        <v>1791324</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1884680</v>
+        <v>1889318</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6791284596952297</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6599400288189377</v>
+        <v>0.6619730805838019</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6964725069282321</v>
+        <v>0.6981861712591355</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>55888</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43718</v>
+        <v>43383</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70244</v>
+        <v>72824</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2263638723572264</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1770698218945597</v>
+        <v>0.1757132479518102</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2845099695247185</v>
+        <v>0.2949597494043754</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -2526,19 +2526,19 @@
         <v>27661</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18986</v>
+        <v>18635</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39747</v>
+        <v>39407</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1921360685287107</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1318779339715773</v>
+        <v>0.1294407090598514</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2760846060344774</v>
+        <v>0.2737252470620599</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -2547,19 +2547,19 @@
         <v>83550</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>67200</v>
+        <v>67526</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>101880</v>
+        <v>101857</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2137567093988827</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.171927368261759</v>
+        <v>0.1727602169672779</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2606526538072695</v>
+        <v>0.2605946452046742</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>191008</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>176652</v>
+        <v>174072</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>203178</v>
+        <v>203513</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7736361276427736</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.715490030475281</v>
+        <v>0.7050402505956243</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8229301781054394</v>
+        <v>0.8242867520481896</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>105</v>
@@ -2597,19 +2597,19 @@
         <v>116306</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>104220</v>
+        <v>104560</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>124981</v>
+        <v>125332</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8078639314712893</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7239153939655225</v>
+        <v>0.7262747529379402</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8681220660284227</v>
+        <v>0.8705592909401486</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>283</v>
@@ -2618,19 +2618,19 @@
         <v>307314</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>288984</v>
+        <v>289007</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>323664</v>
+        <v>323338</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7862432906011172</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.73934734619273</v>
+        <v>0.7394053547953255</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8280726317382406</v>
+        <v>0.8272397830327221</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>62650</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49383</v>
+        <v>48066</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78044</v>
+        <v>78176</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2704439443938698</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2131729492515782</v>
+        <v>0.2074877948866064</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3368933799252777</v>
+        <v>0.3374630519089292</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -2743,19 +2743,19 @@
         <v>44539</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32374</v>
+        <v>33096</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59635</v>
+        <v>58307</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2580659812740985</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1875831182541224</v>
+        <v>0.1917618640895725</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3455385453649779</v>
+        <v>0.3378429614744007</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>93</v>
@@ -2764,19 +2764,19 @@
         <v>107189</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89008</v>
+        <v>87458</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>127597</v>
+        <v>127412</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2651593260764343</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2201844552106523</v>
+        <v>0.2163488619118014</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3156445008150359</v>
+        <v>0.3151860403122023</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>169007</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>153613</v>
+        <v>153481</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>182274</v>
+        <v>183591</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7295560556061302</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6631066200747224</v>
+        <v>0.6625369480910708</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7868270507484219</v>
+        <v>0.7925122051133935</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>116</v>
@@ -2814,19 +2814,19 @@
         <v>128048</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>112952</v>
+        <v>114280</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>140213</v>
+        <v>139491</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7419340187259015</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6544614546350216</v>
+        <v>0.6621570385255993</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8124168817458763</v>
+        <v>0.8082381359104276</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>269</v>
@@ -2835,19 +2835,19 @@
         <v>297055</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>276647</v>
+        <v>276832</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>315236</v>
+        <v>316786</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7348406739235657</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.684355499184964</v>
+        <v>0.6848139596877977</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7798155447893476</v>
+        <v>0.7836511380881986</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>154439</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>133613</v>
+        <v>134017</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>173207</v>
+        <v>176220</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3812008842769236</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3297961395283095</v>
+        <v>0.3307922738293012</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4275257756023847</v>
+        <v>0.4349611183321234</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -2960,19 +2960,19 @@
         <v>21977</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14410</v>
+        <v>14042</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30889</v>
+        <v>30482</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1939709482686097</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1271868066567743</v>
+        <v>0.1239362477714864</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2726356876261836</v>
+        <v>0.269039381059362</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>166</v>
@@ -2981,19 +2981,19 @@
         <v>176416</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>154054</v>
+        <v>153536</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>197931</v>
+        <v>199490</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.340284122096974</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2971513958818996</v>
+        <v>0.2961511826243559</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3817847929047584</v>
+        <v>0.3847920252389037</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>250700</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>231932</v>
+        <v>228919</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>271526</v>
+        <v>271122</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6187991157230763</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5724742243976152</v>
+        <v>0.5650388816678766</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6702038604716906</v>
+        <v>0.6692077261706986</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>85</v>
@@ -3031,19 +3031,19 @@
         <v>91321</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>82409</v>
+        <v>82816</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>98888</v>
+        <v>99256</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8060290517313903</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7273643123738163</v>
+        <v>0.730960618940638</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8728131933432257</v>
+        <v>0.8760637522285135</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>318</v>
@@ -3052,19 +3052,19 @@
         <v>342021</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>320506</v>
+        <v>318947</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>364383</v>
+        <v>364901</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.659715877903026</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6182152070952416</v>
+        <v>0.6152079747610963</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7028486041181005</v>
+        <v>0.7038488173756446</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>309236</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>280944</v>
+        <v>279230</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>337239</v>
+        <v>336484</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3996262301585021</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3630655027577001</v>
+        <v>0.360850164490492</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4358157727603852</v>
+        <v>0.4348392922164438</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>100</v>
@@ -3177,19 +3177,19 @@
         <v>111150</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>93030</v>
+        <v>93445</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>129991</v>
+        <v>130846</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2850534451678038</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2385821443111968</v>
+        <v>0.2396476012430326</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3333711989789317</v>
+        <v>0.3355640728106596</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>393</v>
@@ -3198,19 +3198,19 @@
         <v>420386</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>388152</v>
+        <v>389239</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>455475</v>
+        <v>456196</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.361236976899343</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3335383778187443</v>
+        <v>0.3344721510206584</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3913887715132816</v>
+        <v>0.3920086140101556</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>464576</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>436573</v>
+        <v>437328</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>492868</v>
+        <v>494582</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6003737698414979</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5641842272396148</v>
+        <v>0.5651607077835563</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6369344972423</v>
+        <v>0.6391498355095082</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>258</v>
@@ -3248,19 +3248,19 @@
         <v>278778</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>259937</v>
+        <v>259082</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>296898</v>
+        <v>296483</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7149465548321962</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6666288010210684</v>
+        <v>0.6644359271893403</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7614178556888032</v>
+        <v>0.7603523987569675</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>686</v>
@@ -3269,19 +3269,19 @@
         <v>743354</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>708265</v>
+        <v>707544</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>775588</v>
+        <v>774501</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.638763023100657</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6086112284867184</v>
+        <v>0.6079913859898444</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6664616221812558</v>
+        <v>0.6655278489793417</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>122856</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>105894</v>
+        <v>107012</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>140469</v>
+        <v>139979</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3814837907372459</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3288143160148301</v>
+        <v>0.3322854639155964</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4361748630161599</v>
+        <v>0.4346510902483133</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>76</v>
@@ -3394,19 +3394,19 @@
         <v>84211</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>68556</v>
+        <v>68117</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>101564</v>
+        <v>100048</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.301779837226873</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.245676047152645</v>
+        <v>0.2441031701266876</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3639661512363901</v>
+        <v>0.3585318265154114</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>194</v>
@@ -3415,19 +3415,19 @@
         <v>207067</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>185713</v>
+        <v>182752</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>231753</v>
+        <v>230367</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3444825425203442</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3089560136080529</v>
+        <v>0.3040315054225355</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3855502299708781</v>
+        <v>0.383244691718152</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>199192</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>181579</v>
+        <v>182069</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>216154</v>
+        <v>215036</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6185162092627542</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5638251369838402</v>
+        <v>0.5653489097516867</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.67118568398517</v>
+        <v>0.6677145360844038</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>181</v>
@@ -3465,19 +3465,19 @@
         <v>194838</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>177485</v>
+        <v>179001</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>210493</v>
+        <v>210932</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.698220162773127</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6360338487636097</v>
+        <v>0.6414681734845883</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7543239528473549</v>
+        <v>0.7558968298733123</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>369</v>
@@ -3486,19 +3486,19 @@
         <v>394030</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>369344</v>
+        <v>370730</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>415384</v>
+        <v>418345</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6555174574796557</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6144497700291219</v>
+        <v>0.6167553082818479</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6910439863919472</v>
+        <v>0.6959684945774645</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>25069</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18105</v>
+        <v>18414</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31995</v>
+        <v>33227</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4620605211971111</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3337038570814308</v>
+        <v>0.3394038330188396</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5897077790548064</v>
+        <v>0.6124202899981934</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>72</v>
@@ -3611,19 +3611,19 @@
         <v>74120</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>60424</v>
+        <v>61328</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>88058</v>
+        <v>88521</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3437939822312997</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2802682503053047</v>
+        <v>0.2844598275551954</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4084400115508453</v>
+        <v>0.4105890919188739</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>96</v>
@@ -3632,19 +3632,19 @@
         <v>99189</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>82966</v>
+        <v>84749</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>115909</v>
+        <v>114181</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3675721783629284</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3074514717485203</v>
+        <v>0.3140603736308095</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4295308096522981</v>
+        <v>0.423126417255537</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>29186</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>22260</v>
+        <v>21028</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>36150</v>
+        <v>35841</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5379394788028889</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4102922209451934</v>
+        <v>0.3875797100018066</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6662961429185692</v>
+        <v>0.6605961669811604</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>131</v>
@@ -3682,19 +3682,19 @@
         <v>141475</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>127537</v>
+        <v>127074</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>155171</v>
+        <v>154267</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6562060177687002</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5915599884491547</v>
+        <v>0.5894109080811262</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7197317496946954</v>
+        <v>0.7155401724448045</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>161</v>
@@ -3703,19 +3703,19 @@
         <v>170661</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>153941</v>
+        <v>155669</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>186884</v>
+        <v>185101</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6324278216370717</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5704691903477018</v>
+        <v>0.5768735827444629</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6925485282514796</v>
+        <v>0.6859396263691901</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>730139</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>682261</v>
+        <v>685749</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>772836</v>
+        <v>778211</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3590009440829655</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3354597377340948</v>
+        <v>0.3371747658318439</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3799945977393886</v>
+        <v>0.3826374152489834</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>331</v>
@@ -3828,19 +3828,19 @@
         <v>363659</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>331217</v>
+        <v>331680</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>397298</v>
+        <v>399984</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2766676189936228</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2519864403329817</v>
+        <v>0.2523387915621683</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3022601133113444</v>
+        <v>0.3043035525999076</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1017</v>
@@ -3849,19 +3849,19 @@
         <v>1093798</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1041635</v>
+        <v>1033066</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1153083</v>
+        <v>1149159</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3266791283421478</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3110999853554418</v>
+        <v>0.3085407221113386</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.34438569898233</v>
+        <v>0.3432137137833702</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>1303669</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1260972</v>
+        <v>1255597</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1351547</v>
+        <v>1348059</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6409990559170345</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6200054022606115</v>
+        <v>0.6173625847510168</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6645402622659053</v>
+        <v>0.6628252341681568</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>876</v>
@@ -3899,19 +3899,19 @@
         <v>950765</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>917126</v>
+        <v>914440</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>983207</v>
+        <v>982744</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7233323810063772</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6977398866886556</v>
+        <v>0.6956964474000924</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7480135596670184</v>
+        <v>0.7476612084378319</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2086</v>
@@ -3920,19 +3920,19 @@
         <v>2254434</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2195149</v>
+        <v>2199073</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2306597</v>
+        <v>2315166</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6733208716578521</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6556143010176703</v>
+        <v>0.6567862862166298</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6889000146445583</v>
+        <v>0.6914592778886613</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>46509</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34631</v>
+        <v>34987</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61210</v>
+        <v>58805</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2354134720520462</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1752906880336201</v>
+        <v>0.1770942740879999</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3098234980801746</v>
+        <v>0.2976494440487076</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -4287,19 +4287,19 @@
         <v>29732</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21440</v>
+        <v>21034</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40975</v>
+        <v>42045</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2298103770589362</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1657134224045116</v>
+        <v>0.1625770858587257</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3167067665408574</v>
+        <v>0.3249817729017213</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>70</v>
@@ -4308,19 +4308,19 @@
         <v>76242</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61149</v>
+        <v>60914</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>94009</v>
+        <v>92838</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2331962033578724</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1870323831473281</v>
+        <v>0.186312401800661</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2875392374919558</v>
+        <v>0.2839591102451651</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>151055</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>136354</v>
+        <v>138759</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>162933</v>
+        <v>162577</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7645865279479538</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6901765019198253</v>
+        <v>0.7023505559512928</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8247093119663796</v>
+        <v>0.8229057259120002</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>98</v>
@@ -4358,19 +4358,19 @@
         <v>99646</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>88403</v>
+        <v>87333</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>107938</v>
+        <v>108344</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7701896229410637</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6832932334591427</v>
+        <v>0.6750182270982785</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8342865775954884</v>
+        <v>0.8374229141412742</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>233</v>
@@ -4379,19 +4379,19 @@
         <v>250701</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>232934</v>
+        <v>234105</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>265794</v>
+        <v>266029</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7668037966421276</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7124607625080441</v>
+        <v>0.716040889754835</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8129676168526717</v>
+        <v>0.813687598199339</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>60578</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48670</v>
+        <v>47998</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74461</v>
+        <v>74388</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3446250109270088</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2768791694313784</v>
+        <v>0.2730599725231415</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.423605222127316</v>
+        <v>0.4231898187678444</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -4504,19 +4504,19 @@
         <v>33164</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23053</v>
+        <v>23329</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43918</v>
+        <v>43401</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.208530002676739</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1449538320133147</v>
+        <v>0.1466919965053461</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2761535014296926</v>
+        <v>0.2729012268464082</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -4525,19 +4525,19 @@
         <v>93742</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>78605</v>
+        <v>76939</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112212</v>
+        <v>110738</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2799806307381106</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2347726383359688</v>
+        <v>0.2297962017307188</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3351464285837074</v>
+        <v>0.3307441617093836</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>115202</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>101319</v>
+        <v>101392</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>127110</v>
+        <v>127782</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6553749890729912</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.576394777872684</v>
+        <v>0.5768101812321555</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7231208305686216</v>
+        <v>0.7269400274768589</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>119</v>
@@ -4575,19 +4575,19 @@
         <v>125871</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>115117</v>
+        <v>115634</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>135982</v>
+        <v>135706</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.791469997323261</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7238464985703075</v>
+        <v>0.7270987731535917</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8550461679866853</v>
+        <v>0.8533080034946539</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>229</v>
@@ -4596,19 +4596,19 @@
         <v>241073</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>222603</v>
+        <v>224077</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>256210</v>
+        <v>257876</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7200193692618894</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6648535714162925</v>
+        <v>0.6692558382906162</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7652273616640313</v>
+        <v>0.7702037982692811</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>122637</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>106256</v>
+        <v>104425</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>141224</v>
+        <v>139466</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3890385416412339</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3370715534620682</v>
+        <v>0.3312645811585663</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.44800168351418</v>
+        <v>0.4424235226186052</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -4721,19 +4721,19 @@
         <v>16726</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10596</v>
+        <v>10344</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24343</v>
+        <v>24572</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.260033449386862</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1647396343879543</v>
+        <v>0.1608175936196151</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3784668657612609</v>
+        <v>0.3820140840409722</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>134</v>
@@ -4742,19 +4742,19 @@
         <v>139363</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>119659</v>
+        <v>119071</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>159782</v>
+        <v>158910</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3671766306732797</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3152642218932069</v>
+        <v>0.3137131094496929</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4209738506230906</v>
+        <v>0.4186758614201049</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>192595</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>174008</v>
+        <v>175766</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>208976</v>
+        <v>210807</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6109614583587661</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.55199831648582</v>
+        <v>0.5575764773813948</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6629284465379317</v>
+        <v>0.6687354188414337</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>45</v>
@@ -4792,19 +4792,19 @@
         <v>47595</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>39978</v>
+        <v>39749</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>53725</v>
+        <v>53977</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.739966550613138</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6215331342387398</v>
+        <v>0.6179859159590277</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8352603656120464</v>
+        <v>0.8391824063803852</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>228</v>
@@ -4813,19 +4813,19 @@
         <v>240190</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>219771</v>
+        <v>220643</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>259894</v>
+        <v>260482</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6328233693267203</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5790261493769093</v>
+        <v>0.5813241385798951</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6847357781067932</v>
+        <v>0.6862868905503076</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>241502</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>215741</v>
+        <v>216767</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>265906</v>
+        <v>266847</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.372884942481663</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3331092409960992</v>
+        <v>0.3346936653692856</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4105663101284283</v>
+        <v>0.4120191950254503</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -4938,19 +4938,19 @@
         <v>98986</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>82004</v>
+        <v>81175</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>117754</v>
+        <v>115369</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2462954703748846</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2040414951065917</v>
+        <v>0.2019778388935972</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2929920098614825</v>
+        <v>0.2870575730212711</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>328</v>
@@ -4959,19 +4959,19 @@
         <v>340488</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>308673</v>
+        <v>311362</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>370453</v>
+        <v>371901</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3244108020139763</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2940980201790765</v>
+        <v>0.2966608540590335</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3529616335494671</v>
+        <v>0.3543408576498466</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>406155</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>381751</v>
+        <v>380810</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>431916</v>
+        <v>430890</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.627115057518337</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5894336898715717</v>
+        <v>0.5879808049745496</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6668907590039008</v>
+        <v>0.6653063346307145</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>292</v>
@@ -5009,19 +5009,19 @@
         <v>302915</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>284147</v>
+        <v>286532</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>319897</v>
+        <v>320726</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7537045296251154</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7070079901385175</v>
+        <v>0.7129424269787288</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7959585048934087</v>
+        <v>0.7980221611064028</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>677</v>
@@ -5030,19 +5030,19 @@
         <v>709069</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>679104</v>
+        <v>677656</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>740884</v>
+        <v>738195</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6755891979860238</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6470383664505328</v>
+        <v>0.6456591423501532</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7059019798209235</v>
+        <v>0.7033391459409664</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>139412</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>120742</v>
+        <v>121492</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>158806</v>
+        <v>158619</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3932078949422875</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3405484784523129</v>
+        <v>0.3426657376964064</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4479079919654914</v>
+        <v>0.4473797477160531</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>93</v>
@@ -5155,19 +5155,19 @@
         <v>94594</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>80063</v>
+        <v>79577</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>111423</v>
+        <v>111216</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3346636881542885</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.283254930776865</v>
+        <v>0.2815346147998322</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3942027389599777</v>
+        <v>0.3934733711520509</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>225</v>
@@ -5176,19 +5176,19 @@
         <v>234006</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>206848</v>
+        <v>207496</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>257254</v>
+        <v>260705</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.367238660909337</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3246189389341909</v>
+        <v>0.3256360970802535</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4037243389617882</v>
+        <v>0.4091398257561529</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>215139</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>195745</v>
+        <v>195932</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>233809</v>
+        <v>233059</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6067921050577125</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5520920080345085</v>
+        <v>0.5526202522839465</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.659451521547687</v>
+        <v>0.6573342623035935</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>178</v>
@@ -5226,19 +5226,19 @@
         <v>188059</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>171230</v>
+        <v>171437</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>202590</v>
+        <v>203076</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6653363118457115</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6057972610400222</v>
+        <v>0.6065266288479491</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7167450692231346</v>
+        <v>0.7184653852001679</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>382</v>
@@ -5247,19 +5247,19 @@
         <v>403197</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>379949</v>
+        <v>376498</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>430355</v>
+        <v>429707</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.632761339090663</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5962756610382118</v>
+        <v>0.5908601742438472</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6753810610658092</v>
+        <v>0.6743639029197465</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>29503</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21410</v>
+        <v>21036</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38624</v>
+        <v>38330</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3927275019281998</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.285001375238111</v>
+        <v>0.2800145619138987</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5141381200839605</v>
+        <v>0.5102357054065291</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>49</v>
@@ -5372,19 +5372,19 @@
         <v>50116</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>38136</v>
+        <v>37156</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>64007</v>
+        <v>62597</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2433682529189045</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1851908862519054</v>
+        <v>0.1804318386760965</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3108233702637146</v>
+        <v>0.3039762399086776</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>77</v>
@@ -5393,19 +5393,19 @@
         <v>79619</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>66272</v>
+        <v>64217</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>94202</v>
+        <v>95120</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.283291395445017</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2358018925882253</v>
+        <v>0.2284888739702366</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3351789230143089</v>
+        <v>0.3384461712184432</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>45620</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>36499</v>
+        <v>36793</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>53713</v>
+        <v>54087</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6072724980718002</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4858618799160394</v>
+        <v>0.4897642945934709</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.714998624761889</v>
+        <v>0.719985438086101</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>147</v>
@@ -5443,19 +5443,19 @@
         <v>155810</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>141919</v>
+        <v>143329</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>167790</v>
+        <v>168770</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7566317470810955</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6891766297362854</v>
+        <v>0.6960237600913224</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8148091137480947</v>
+        <v>0.8195681613239035</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>191</v>
@@ -5464,19 +5464,19 @@
         <v>201430</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>186847</v>
+        <v>185929</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>214777</v>
+        <v>216832</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.716708604554983</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6648210769856915</v>
+        <v>0.6615538287815569</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7641981074117747</v>
+        <v>0.7715111260297633</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>640141</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>599213</v>
+        <v>600237</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>678982</v>
+        <v>677238</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3625000865430139</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3393233479248328</v>
+        <v>0.3399028243790096</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3844945513537395</v>
+        <v>0.3835071262156464</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>316</v>
@@ -5589,19 +5589,19 @@
         <v>323317</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>289523</v>
+        <v>296230</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>353138</v>
+        <v>355555</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2600658421795999</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.232882882403251</v>
+        <v>0.2382772277511218</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2840525845201329</v>
+        <v>0.2859969684584462</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>921</v>
@@ -5610,19 +5610,19 @@
         <v>963459</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>912386</v>
+        <v>914548</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1016037</v>
+        <v>1018065</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3201795141828007</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3032066974057535</v>
+        <v>0.3039252415397077</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3376524048844934</v>
+        <v>0.3383265406227642</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>1125766</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1086925</v>
+        <v>1088669</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1166694</v>
+        <v>1165670</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6374999134569862</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6155054486462604</v>
+        <v>0.6164928737843534</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6606766520751662</v>
+        <v>0.6600971756209904</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>879</v>
@@ -5660,19 +5660,19 @@
         <v>919897</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>890076</v>
+        <v>887659</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>953691</v>
+        <v>946984</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7399341578204001</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.715947415479867</v>
+        <v>0.7140030315415536</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7671171175967487</v>
+        <v>0.7617227722488782</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1940</v>
@@ -5681,19 +5681,19 @@
         <v>2045662</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1993084</v>
+        <v>1991056</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2096735</v>
+        <v>2094573</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6798204858171993</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6623475951155064</v>
+        <v>0.6616734593772353</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6967933025942464</v>
+        <v>0.6960747584602923</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>51509</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39250</v>
+        <v>38991</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65319</v>
+        <v>64138</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2327056604277984</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1773215526671213</v>
+        <v>0.176150964278255</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2950981674752669</v>
+        <v>0.2897617930838502</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -6048,19 +6048,19 @@
         <v>28894</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21585</v>
+        <v>20957</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38060</v>
+        <v>37657</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2046435609798272</v>
+        <v>0.2046435609798273</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1528755521306907</v>
+        <v>0.1484317491005844</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2695664586481211</v>
+        <v>0.2667072675083363</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>97</v>
@@ -6069,19 +6069,19 @@
         <v>80403</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>65628</v>
+        <v>66679</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>95824</v>
+        <v>96552</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2217768706376958</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1810226213966347</v>
+        <v>0.1839227441499423</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.26431472293487</v>
+        <v>0.2663210778215631</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>169839</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>156029</v>
+        <v>157210</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>182098</v>
+        <v>182357</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7672943395722017</v>
+        <v>0.7672943395722016</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7049018325247332</v>
+        <v>0.7102382069161496</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8226784473328788</v>
+        <v>0.8238490357217451</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>165</v>
@@ -6119,19 +6119,19 @@
         <v>112297</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>103131</v>
+        <v>103534</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>119606</v>
+        <v>120234</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7953564390201727</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.730433541351879</v>
+        <v>0.7332927324916638</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8471244478693093</v>
+        <v>0.8515682508994163</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>342</v>
@@ -6140,19 +6140,19 @@
         <v>282135</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>266714</v>
+        <v>265986</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>296910</v>
+        <v>295859</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7782231293623042</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.73568527706513</v>
+        <v>0.7336789221784369</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8189773786033652</v>
+        <v>0.8160772558500576</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>56010</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43069</v>
+        <v>42965</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69152</v>
+        <v>69691</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2877691775497579</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2212822701048151</v>
+        <v>0.2207490418134707</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.35529271800245</v>
+        <v>0.3580634855400973</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -6265,19 +6265,19 @@
         <v>38678</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29236</v>
+        <v>29287</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48081</v>
+        <v>48852</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2520253513789472</v>
+        <v>0.2520253513789473</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1905017042046079</v>
+        <v>0.190833543101424</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3132997669214423</v>
+        <v>0.3183217658887808</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>111</v>
@@ -6286,19 +6286,19 @@
         <v>94687</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79967</v>
+        <v>79756</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110768</v>
+        <v>111107</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2720108045573293</v>
+        <v>0.2720108045573292</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2297244212059666</v>
+        <v>0.2291184766177275</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3182066316034642</v>
+        <v>0.3191811591241581</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>138624</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>125482</v>
+        <v>124943</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>151565</v>
+        <v>151669</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7122308224502422</v>
+        <v>0.7122308224502421</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6447072819975501</v>
+        <v>0.641936514459903</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7787177298951848</v>
+        <v>0.7792509581865291</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>155</v>
@@ -6336,19 +6336,19 @@
         <v>114789</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>105386</v>
+        <v>104615</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>124231</v>
+        <v>124180</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7479746486210528</v>
+        <v>0.7479746486210529</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6867002330785564</v>
+        <v>0.6816782341112191</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.809498295795392</v>
+        <v>0.8091664568985762</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>297</v>
@@ -6357,19 +6357,19 @@
         <v>253414</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>237333</v>
+        <v>236994</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>268134</v>
+        <v>268345</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7279891954426709</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6817933683965358</v>
+        <v>0.6808188408758419</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7702755787940333</v>
+        <v>0.7708815233822726</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>85055</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>71584</v>
+        <v>70920</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>100898</v>
+        <v>101041</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3668166307132233</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3087198744210957</v>
+        <v>0.3058577876925221</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4351419840467045</v>
+        <v>0.4357582755782222</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -6482,19 +6482,19 @@
         <v>11685</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7529</v>
+        <v>7235</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17535</v>
+        <v>17479</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2370805759209434</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1527669417706199</v>
+        <v>0.1467942295565152</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3557712530183329</v>
+        <v>0.354639445929947</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>111</v>
@@ -6503,19 +6503,19 @@
         <v>96740</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82722</v>
+        <v>79291</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>112450</v>
+        <v>112070</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.344074422075892</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2942185780809087</v>
+        <v>0.2820138490065375</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3999529669068346</v>
+        <v>0.3985999400621755</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>146818</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>130975</v>
+        <v>130832</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>160289</v>
+        <v>160953</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6331833692867768</v>
+        <v>0.6331833692867767</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5648580159532959</v>
+        <v>0.5642417244217778</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6912801255789044</v>
+        <v>0.6941422123074779</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>59</v>
@@ -6553,19 +6553,19 @@
         <v>37601</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31751</v>
+        <v>31807</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41757</v>
+        <v>42051</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7629194240790567</v>
+        <v>0.7629194240790568</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6442287469816672</v>
+        <v>0.6453605540700529</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8472330582293801</v>
+        <v>0.8532057704434849</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>209</v>
@@ -6574,19 +6574,19 @@
         <v>184419</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>168709</v>
+        <v>169089</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>198437</v>
+        <v>201868</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6559255779241079</v>
+        <v>0.655925577924108</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6000470330931654</v>
+        <v>0.6014000599378243</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7057814219190915</v>
+        <v>0.7179861509934624</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>203214</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>178046</v>
+        <v>177072</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>225926</v>
+        <v>226194</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3575190311193504</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3132411753681561</v>
+        <v>0.3115276457415271</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3974762802298482</v>
+        <v>0.3979490003993057</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>99</v>
@@ -6699,19 +6699,19 @@
         <v>77463</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>64106</v>
+        <v>64157</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>91783</v>
+        <v>92927</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2499037541420343</v>
+        <v>0.2499037541420342</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2068128440666262</v>
+        <v>0.2069753382741714</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2961003325865946</v>
+        <v>0.2997927091536687</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>311</v>
@@ -6720,19 +6720,19 @@
         <v>280677</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>253549</v>
+        <v>252383</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>309029</v>
+        <v>308756</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3195422832688712</v>
+        <v>0.3195422832688714</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2886579846404314</v>
+        <v>0.287330738013459</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3518205080030928</v>
+        <v>0.3515093678865696</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>365186</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>342474</v>
+        <v>342206</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>390354</v>
+        <v>391328</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6424809688806495</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6025237197701521</v>
+        <v>0.6020509996006943</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.686758824631844</v>
+        <v>0.6884723542584736</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>316</v>
@@ -6770,19 +6770,19 @@
         <v>232509</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>218189</v>
+        <v>217045</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>245866</v>
+        <v>245815</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7500962458579657</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7038996674134054</v>
+        <v>0.7002072908463313</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.793187155933374</v>
+        <v>0.7930246617258286</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>667</v>
@@ -6791,19 +6791,19 @@
         <v>597695</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>569343</v>
+        <v>569616</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>624823</v>
+        <v>625989</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6804577167311286</v>
+        <v>0.6804577167311285</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6481794919969072</v>
+        <v>0.6484906321134305</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7113420153595685</v>
+        <v>0.7126692619865409</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>107884</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>92160</v>
+        <v>91921</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>127163</v>
+        <v>124802</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3897897541942832</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3329763680708204</v>
+        <v>0.3321149091118485</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4594428082906748</v>
+        <v>0.4509151253070491</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>81</v>
@@ -6916,19 +6916,19 @@
         <v>59289</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>47930</v>
+        <v>48100</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>73260</v>
+        <v>73900</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2370745823891044</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1916553312519386</v>
+        <v>0.1923357144146924</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2929384066842061</v>
+        <v>0.2955005203996628</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>193</v>
@@ -6937,19 +6937,19 @@
         <v>167173</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>146745</v>
+        <v>146561</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>189663</v>
+        <v>188464</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3173005137769885</v>
+        <v>0.3173005137769884</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2785276475060252</v>
+        <v>0.2781774577573379</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3599880448173296</v>
+        <v>0.3577107812424857</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>168892</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>149613</v>
+        <v>151974</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>184616</v>
+        <v>184855</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6102102458057167</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5405571917093249</v>
+        <v>0.5490848746929502</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6670236319291795</v>
+        <v>0.6678850908881515</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>272</v>
@@ -6987,19 +6987,19 @@
         <v>190796</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176825</v>
+        <v>176185</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>202155</v>
+        <v>201985</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7629254176108956</v>
+        <v>0.7629254176108957</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7070615933157941</v>
+        <v>0.7044994796003369</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8083446687480614</v>
+        <v>0.8076642855853073</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>434</v>
@@ -7008,19 +7008,19 @@
         <v>359687</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>337197</v>
+        <v>338396</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>380115</v>
+        <v>380299</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6826994862230117</v>
+        <v>0.6826994862230115</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6400119551826703</v>
+        <v>0.6422892187575138</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7214723524939747</v>
+        <v>0.7218225422426616</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>8852</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3435</v>
+        <v>3048</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18709</v>
+        <v>18133</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2784015532791179</v>
+        <v>0.278401553279118</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1080342091371228</v>
+        <v>0.09586393121646515</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.588392695827803</v>
+        <v>0.5702995409398628</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -7133,19 +7133,19 @@
         <v>22267</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14885</v>
+        <v>15714</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30323</v>
+        <v>32450</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1750429155039621</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1170169011000319</v>
+        <v>0.1235324815766944</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2383784825274718</v>
+        <v>0.2550966551840435</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>38</v>
@@ -7154,19 +7154,19 @@
         <v>31119</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21467</v>
+        <v>21695</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44334</v>
+        <v>44528</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.195711875683159</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1350086372239017</v>
+        <v>0.1364438147282084</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.278823149738741</v>
+        <v>0.2800450304767638</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>22944</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13087</v>
+        <v>13663</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>28361</v>
+        <v>28748</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.721598446720882</v>
+        <v>0.7215984467208821</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4116073041721968</v>
+        <v>0.4297004590601379</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8919657908628774</v>
+        <v>0.904136068783535</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>133</v>
@@ -7204,19 +7204,19 @@
         <v>104939</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>96883</v>
+        <v>94756</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>112321</v>
+        <v>111492</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8249570844960379</v>
+        <v>0.824957084496038</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7616215174725278</v>
+        <v>0.7449033448159565</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8829830988999676</v>
+        <v>0.8764675184233057</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>144</v>
@@ -7225,19 +7225,19 @@
         <v>127884</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>114669</v>
+        <v>114475</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>137536</v>
+        <v>137308</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.804288124316841</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7211768502612589</v>
+        <v>0.7199549695232361</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8649913627760982</v>
+        <v>0.8635561852717912</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>512524</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>473012</v>
+        <v>471513</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>552656</v>
+        <v>552029</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.336119326546653</v>
+        <v>0.3361193265466531</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3102069580068538</v>
+        <v>0.3092238244082091</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3624383587414914</v>
+        <v>0.3620275061284988</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>323</v>
@@ -7350,19 +7350,19 @@
         <v>238275</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>212676</v>
+        <v>215436</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>262124</v>
+        <v>263785</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2310638098034525</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2062397433520847</v>
+        <v>0.2089158765962972</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2541915443937554</v>
+        <v>0.2558022156657532</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>861</v>
@@ -7371,19 +7371,19 @@
         <v>750798</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>706009</v>
+        <v>706900</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>794428</v>
+        <v>804448</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2937357079234341</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2762126136807451</v>
+        <v>0.276561154497198</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3108047479123645</v>
+        <v>0.3147251958807124</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>1012303</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>972171</v>
+        <v>972798</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1051815</v>
+        <v>1053314</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.663880673453347</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6375616412585086</v>
+        <v>0.6379724938715011</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6897930419931463</v>
+        <v>0.6907761755917909</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1100</v>
@@ -7421,19 +7421,19 @@
         <v>792932</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>769083</v>
+        <v>767422</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>818531</v>
+        <v>815771</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7689361901965475</v>
+        <v>0.7689361901965477</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7458084556062446</v>
+        <v>0.7441977843342468</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7937602566479148</v>
+        <v>0.7910841234037028</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2093</v>
@@ -7442,19 +7442,19 @@
         <v>1805236</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1761606</v>
+        <v>1751586</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1850025</v>
+        <v>1849134</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7062642920765659</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6891952520876353</v>
+        <v>0.6852748041192879</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7237873863192549</v>
+        <v>0.723438845502802</v>
       </c>
     </row>
     <row r="24">
